--- a/MS_Excel/Products.xlsx
+++ b/MS_Excel/Products.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="195">
   <si>
     <t>Supplier IDs</t>
   </si>
@@ -592,7 +592,25 @@
     <t>Round function</t>
   </si>
   <si>
-    <t>ROUND(F41,1)</t>
+    <t>Roundup fuction</t>
+  </si>
+  <si>
+    <t>Round down fuction</t>
+  </si>
+  <si>
+    <t>ROUND(F41,1) -</t>
+  </si>
+  <si>
+    <t>ROUNDUP(F45,1) --&gt; it goes near to 1</t>
+  </si>
+  <si>
+    <t>ROUNDDOWN(F45,1) --&gt; it goes near to 0</t>
+  </si>
+  <si>
+    <t>Concat</t>
+  </si>
+  <si>
+    <t>Match value</t>
   </si>
 </sst>
 </file>
@@ -861,42 +879,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -923,6 +905,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,18 +1246,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="15" ySplit="11" topLeftCell="Q39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="11" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
-      <selection pane="bottomRight" activeCell="O41" sqref="O41"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
     <col min="19" max="19" width="12.77734375" customWidth="1"/>
     <col min="20" max="20" width="12.109375" customWidth="1"/>
     <col min="21" max="21" width="24.109375" customWidth="1"/>
@@ -1288,6 +1308,9 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1323,6 +1346,10 @@
       <c r="M2" t="s">
         <v>53</v>
       </c>
+      <c r="P2" t="str">
+        <f>CONCATENATE(C2," -",D2)</f>
+        <v>NWTCFV-92 -Northwind Traders Green Beans</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1358,6 +1385,10 @@
       <c r="M3" t="s">
         <v>53</v>
       </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P47" si="0">CONCATENATE(C3," -",D3)</f>
+        <v>NWTCFV-93 -Northwind Traders Corn</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1393,6 +1424,10 @@
       <c r="M4" t="s">
         <v>53</v>
       </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCFV-88 -Northwind Traders Pears</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1428,6 +1463,10 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCFV-89 -Northwind Traders Peaches</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1463,6 +1502,10 @@
       <c r="M6" t="s">
         <v>53</v>
       </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCFV-94 -Northwind Traders Peas</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1495,6 +1538,10 @@
       <c r="M7" t="s">
         <v>127</v>
       </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCS-83 -Northwind Traders Potato Chips</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1530,6 +1577,10 @@
       <c r="M8" t="s">
         <v>53</v>
       </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCFV-90 -Northwind Traders Pineapple</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1562,6 +1613,10 @@
       <c r="M9" t="s">
         <v>75</v>
       </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTSO-98 -Northwind Traders Vegetable Soup</v>
+      </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1595,6 +1650,10 @@
       <c r="M10" t="s">
         <v>75</v>
       </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTSO-99 -Northwind Traders Chicken Soup</v>
+      </c>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -1631,6 +1690,10 @@
       <c r="M11" t="s">
         <v>53</v>
       </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCFV-91 -Northwind Traders Cherry Pie Filling</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1666,6 +1729,10 @@
       <c r="M12" t="s">
         <v>71</v>
       </c>
+      <c r="P12" t="e">
+        <f>S56M</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1704,6 +1771,10 @@
       <c r="M13" t="s">
         <v>18</v>
       </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTB-81 -Northwind Traders Green Tea</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1742,16 +1813,20 @@
       <c r="M14" t="s">
         <v>40</v>
       </c>
-      <c r="S14" s="15" t="s">
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTDFN-80 -Northwind Traders Dried Plums</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="T14" s="16" t="s">
+      <c r="T14" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="U14" s="16" t="s">
+      <c r="U14" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1786,19 +1861,23 @@
       <c r="M15" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="18">
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTC-82 -Northwind Traders Granola</v>
+      </c>
+      <c r="S15" s="6">
         <f>SUM(G:G)</f>
         <v>713.06000000000006</v>
       </c>
-      <c r="T15" s="19">
+      <c r="T15" s="7">
         <f>AVERAGE(G:G)</f>
         <v>15.84577777777778</v>
       </c>
-      <c r="U15" s="19">
+      <c r="U15" s="7">
         <f>MIN(G:G)</f>
         <v>1.2</v>
       </c>
-      <c r="V15" s="20">
+      <c r="V15" s="8">
         <f>MAX(G:G)</f>
         <v>81</v>
       </c>
@@ -1840,16 +1919,20 @@
       <c r="M16" t="s">
         <v>18</v>
       </c>
-      <c r="S16" s="21" t="s">
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTB-87 -Northwind Traders Tea</v>
+      </c>
+      <c r="S16" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="T16" s="22" t="s">
+      <c r="T16" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="U16" s="22" t="s">
+      <c r="U16" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="V16" s="23" t="s">
+      <c r="V16" s="11" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1887,16 +1970,20 @@
       <c r="M17" t="s">
         <v>71</v>
       </c>
-      <c r="S17" s="18"/>
-      <c r="T17" s="19">
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCM-96 -Northwind Traders Smoked Salmon</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="7">
         <f>AVERAGEA(L:L)</f>
         <v>14.0625</v>
       </c>
-      <c r="U17" s="19">
+      <c r="U17" s="7">
         <f>AVERAGEIF(M:M,"pasta",G:G)</f>
         <v>28.75</v>
       </c>
-      <c r="V17" s="20"/>
+      <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -1929,14 +2016,18 @@
       <c r="M18" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="21"/>
-      <c r="T18" s="22" t="s">
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTC-82 -Northwind Traders Hot Cereal</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="U18" s="22" t="s">
+      <c r="U18" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="V18" s="23"/>
+      <c r="V18" s="11"/>
     </row>
     <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -1975,6 +2066,10 @@
       <c r="M19" t="s">
         <v>90</v>
       </c>
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTG-52 -Northwind Traders Long Grain Rice</v>
+      </c>
     </row>
     <row r="20" spans="1:22" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2013,12 +2108,16 @@
       <c r="M20" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="P20" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTBGM-19 -Northwind Traders Chocolate Biscuits Mix</v>
+      </c>
+      <c r="S20" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="11"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="14"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -2057,13 +2156,17 @@
       <c r="M21" t="s">
         <v>75</v>
       </c>
-      <c r="S21" s="3">
+      <c r="P21" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTSO-41 -Northwind Traders Clam Chowder</v>
+      </c>
+      <c r="S21" s="15">
         <f>SUMIF(M:M,"pasta",G:G)</f>
         <v>57.5</v>
       </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="5"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="17"/>
     </row>
     <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -2102,12 +2205,16 @@
       <c r="M22" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="P22" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCO-3 -Northwind Traders Syrup</v>
+      </c>
+      <c r="S22" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="8"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="23"/>
     </row>
     <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -2146,6 +2253,10 @@
       <c r="M23" t="s">
         <v>58</v>
       </c>
+      <c r="P23" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTBGM-21 -Northwind Traders Scones</v>
+      </c>
     </row>
     <row r="24" spans="1:22" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2184,12 +2295,16 @@
       <c r="M24" t="s">
         <v>40</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="P24" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTDFN-74 -Northwind Traders Almonds</v>
+      </c>
+      <c r="S24" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="11"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="14"/>
     </row>
     <row r="25" spans="1:22" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -2228,13 +2343,17 @@
       <c r="M25" t="s">
         <v>58</v>
       </c>
-      <c r="S25" s="3">
+      <c r="P25" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTBGM-85 -Northwind Traders Brownie Mix</v>
+      </c>
+      <c r="S25" s="15">
         <f>SUMIF(G:G,"&gt;50")</f>
         <v>134</v>
       </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="5"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="17"/>
     </row>
     <row r="26" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -2273,12 +2392,16 @@
       <c r="M26" t="s">
         <v>83</v>
       </c>
-      <c r="S26" s="12" t="s">
+      <c r="P26" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCA-48 -Northwind Traders Chocolate</v>
+      </c>
+      <c r="S26" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="14"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="20"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -2317,6 +2440,10 @@
       <c r="M27" t="s">
         <v>23</v>
       </c>
+      <c r="P27" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCO-77 -Northwind Traders Mustard</v>
+      </c>
     </row>
     <row r="28" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -2355,6 +2482,10 @@
       <c r="M28" t="s">
         <v>18</v>
       </c>
+      <c r="P28" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTB-34 -Northwind Traders Beer</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2393,12 +2524,16 @@
       <c r="M29" t="s">
         <v>58</v>
       </c>
-      <c r="S29" s="9" t="s">
+      <c r="P29" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTBGM-86 -Northwind Traders Cake Mix</v>
+      </c>
+      <c r="S29" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="11"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="14"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2437,13 +2572,17 @@
       <c r="M30" t="s">
         <v>45</v>
       </c>
-      <c r="S30" s="3">
+      <c r="P30" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTS-66 -Northwind Traders Tomato Sauce</v>
+      </c>
+      <c r="S30" s="15">
         <f>SUMIFS(G:G,M:M,"Pasta",F:F,"&gt;5")</f>
         <v>57.5</v>
       </c>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="5"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="17"/>
     </row>
     <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -2482,12 +2621,16 @@
       <c r="M31" t="s">
         <v>18</v>
       </c>
-      <c r="S31" s="12" t="s">
+      <c r="P31" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTB-1 -Northwind Traders Chai</v>
+      </c>
+      <c r="S31" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="14"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="20"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -2526,6 +2669,10 @@
       <c r="M32" t="s">
         <v>71</v>
       </c>
+      <c r="P32" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCM-40 -Northwind Traders Crab Meat</v>
+      </c>
     </row>
     <row r="33" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -2564,6 +2711,10 @@
       <c r="M33" t="s">
         <v>94</v>
       </c>
+      <c r="P33" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTP-57 -Northwind Traders Ravioli</v>
+      </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -2602,12 +2753,16 @@
       <c r="M34" t="s">
         <v>45</v>
       </c>
-      <c r="S34" s="9" t="s">
+      <c r="P34" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTS-65 -Northwind Traders Hot Pepper Sauce</v>
+      </c>
+      <c r="S34" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="11"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="14"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -2646,13 +2801,17 @@
       <c r="M35" t="s">
         <v>30</v>
       </c>
-      <c r="S35" s="3">
+      <c r="P35" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTO-5 -Northwind Traders Olive Oil</v>
+      </c>
+      <c r="S35" s="15">
         <f>COUNT(H:H)</f>
         <v>45</v>
       </c>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="5"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="17"/>
     </row>
     <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -2691,12 +2850,16 @@
       <c r="M36" t="s">
         <v>23</v>
       </c>
-      <c r="S36" s="12" t="s">
+      <c r="P36" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCO-4 -Northwind Traders Cajun Seasoning</v>
+      </c>
+      <c r="S36" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="14"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="20"/>
     </row>
     <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
@@ -2735,6 +2898,10 @@
       <c r="M37" t="s">
         <v>40</v>
       </c>
+      <c r="P37" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTDFN-14 -Northwind Traders Walnuts</v>
+      </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -2773,12 +2940,16 @@
       <c r="M38" t="s">
         <v>35</v>
       </c>
-      <c r="S38" s="9" t="s">
+      <c r="P38" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTJP-6 -Northwind Traders Boysenberry Spread</v>
+      </c>
+      <c r="S38" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="11"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="14"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -2817,13 +2988,17 @@
       <c r="M39" t="s">
         <v>40</v>
       </c>
-      <c r="S39" s="3">
+      <c r="P39" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTDFN-7 -Northwind Traders Dried Pears</v>
+      </c>
+      <c r="S39" s="15">
         <f>COUNTA(H:H)</f>
         <v>46</v>
       </c>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="5"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="17"/>
     </row>
     <row r="40" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
@@ -2862,12 +3037,16 @@
       <c r="M40" t="s">
         <v>107</v>
       </c>
-      <c r="S40" s="12" t="s">
+      <c r="P40" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTD-72 -Northwind Traders Mozzarella</v>
+      </c>
+      <c r="S40" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="14"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="20"/>
     </row>
     <row r="41" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
@@ -2906,6 +3085,10 @@
       <c r="M41" t="s">
         <v>94</v>
       </c>
+      <c r="P41" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTP-56 -Northwind Traders Gnocchi</v>
+      </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -2944,12 +3127,16 @@
       <c r="M42" t="s">
         <v>53</v>
       </c>
-      <c r="S42" s="9" t="s">
+      <c r="P42" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTCFV-17 -Northwind Traders Fruit Cocktail</v>
+      </c>
+      <c r="S42" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="11"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="14"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -2988,13 +3175,17 @@
       <c r="M43" t="s">
         <v>45</v>
       </c>
-      <c r="S43" s="3">
+      <c r="P43" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTS-8 -Northwind Traders Curry Sauce</v>
+      </c>
+      <c r="S43" s="15">
         <f>COUNTIF(H:H, "&gt;10")</f>
         <v>21</v>
       </c>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="5"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="17"/>
     </row>
     <row r="44" spans="1:22" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -3033,12 +3224,16 @@
       <c r="M44" t="s">
         <v>18</v>
       </c>
-      <c r="S44" s="12" t="s">
+      <c r="P44" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTB-43 -Northwind Traders Coffee</v>
+      </c>
+      <c r="S44" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="14"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="20"/>
     </row>
     <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -3077,6 +3272,10 @@
       <c r="M45" t="s">
         <v>40</v>
       </c>
+      <c r="P45" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTDFN-51 -Northwind Traders Dried Apples</v>
+      </c>
     </row>
     <row r="46" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -3115,29 +3314,37 @@
       <c r="M46" t="s">
         <v>35</v>
       </c>
-      <c r="S46" s="9" t="s">
+      <c r="P46" t="str">
+        <f t="shared" si="0"/>
+        <v>NWTJP-6 -Northwind Traders Marmalade</v>
+      </c>
+      <c r="S46" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="11"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="14"/>
     </row>
     <row r="47" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S47" s="3">
+      <c r="P47" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> -</v>
+      </c>
+      <c r="S47" s="15">
         <f>COUNTIFS(H:H, "&gt;10", M:M,"Pasta")</f>
         <v>2</v>
       </c>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="5"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="17"/>
     </row>
     <row r="48" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S48" s="12" t="s">
+      <c r="S48" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="14"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="20"/>
     </row>
     <row r="51" spans="19:21" x14ac:dyDescent="0.3">
       <c r="S51" t="s">
@@ -3148,7 +3355,36 @@
         <v>28.5</v>
       </c>
       <c r="U51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S52" t="s">
         <v>188</v>
+      </c>
+      <c r="T52" s="2">
+        <f>ROUNDUP(F45,1)</f>
+        <v>39.800000000000004</v>
+      </c>
+      <c r="U52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S53" t="s">
+        <v>189</v>
+      </c>
+      <c r="T53" s="2">
+        <f>ROUNDDOWN(F45,1)</f>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="U53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S56" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3156,6 +3392,18 @@
     <sortCondition ref="G2:G46"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="S35:V35"/>
     <mergeCell ref="S46:V46"/>
     <mergeCell ref="S47:V47"/>
     <mergeCell ref="S48:V48"/>
@@ -3165,18 +3413,6 @@
     <mergeCell ref="S42:V42"/>
     <mergeCell ref="S43:V43"/>
     <mergeCell ref="S44:V44"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="S36:V36"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="S26:V26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
